--- a/16_Базовые диаграммы и спарклайны/ПРАКТИКА/16.4_Практическая_работа.xlsx
+++ b/16_Базовые диаграммы и спарклайны/ПРАКТИКА/16.4_Практическая_работа.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\16_Базовые диаграммы и спарклайны\ПРАКТИКА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C42325-2760-4EC2-A51C-57394CFD4E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F27BE-1304-4424-B8D3-BEF9EFC0848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,20 @@
     <sheet name="Города" sheetId="4" r:id="rId5"/>
     <sheet name="Структура по месяцам" sheetId="5" r:id="rId6"/>
     <sheet name="Каналы продаж" sheetId="6" r:id="rId7"/>
+    <sheet name="Диаграмма2" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -940,6 +952,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'План-факт'!$A$2:$A$13</c:f>
@@ -1059,6 +1129,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'План-факт'!$A$2:$A$13</c:f>
@@ -1273,6 +1401,38 @@
         <c:crossAx val="1115444368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1667,12 +1827,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1705,9 +1862,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1847,7 +2027,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB15-4062-92ED-9D1186290AEE}"/>
+              <c16:uniqueId val="{00000000-B554-43B6-BB9A-CD9FE05A5A52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1859,12 +2039,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1210885616"/>
-        <c:axId val="1206303552"/>
+        <c:gapWidth val="100"/>
+        <c:axId val="550975695"/>
+        <c:axId val="558505711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1210885616"/>
+        <c:axId val="550975695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +2058,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1894,10 +2074,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1907,7 +2084,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206303552"/>
+        <c:crossAx val="558505711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +2092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1206303552"/>
+        <c:axId val="558505711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +2102,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1953,10 +2130,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1966,7 +2140,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1210885616"/>
+        <c:crossAx val="550975695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1988,7 +2162,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2562,6 +2736,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ПРОДАЖИ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2622,6 +2821,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Каналы продаж'!$B$1:$M$1</c:f>
@@ -2713,7 +2970,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6620-4EA5-AD0B-14D301547BA1}"/>
+              <c16:uniqueId val="{00000000-0441-4B8C-9B29-8091D472BB63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2741,6 +2998,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Каналы продаж'!$B$1:$M$1</c:f>
@@ -2832,7 +3147,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6620-4EA5-AD0B-14D301547BA1}"/>
+              <c16:uniqueId val="{00000001-0441-4B8C-9B29-8091D472BB63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2860,6 +3175,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Каналы продаж'!$B$1:$M$1</c:f>
@@ -2951,7 +3324,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6620-4EA5-AD0B-14D301547BA1}"/>
+              <c16:uniqueId val="{00000002-0441-4B8C-9B29-8091D472BB63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2979,6 +3352,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Каналы продаж'!$B$1:$M$1</c:f>
@@ -3070,7 +3501,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6620-4EA5-AD0B-14D301547BA1}"/>
+              <c16:uniqueId val="{00000003-0441-4B8C-9B29-8091D472BB63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3262,11 +3693,6 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5020,33 +5446,27 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5061,7 +5481,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5069,7 +5489,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5077,17 +5497,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -5096,9 +5513,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5121,6 +5537,987 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -5524,1016 +6921,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1DE08447-E2BD-466B-BA8B-6FACDC99D605}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1DE08447-E2BD-466B-BA8B-6FACDC99D605}">
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{05C1A76E-B1A7-4BA1-A31D-6F340EE89597}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
@@ -6884,7 +7284,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294628" cy="6069419"/>
+    <xdr:ext cx="9303488" cy="6069419"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -6959,22 +7359,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>121926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23804F21-4B3F-12D7-EB24-A4C50C518CF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52E22A5-87A8-53A7-B329-12E3957E8293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7038,29 +7438,21 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9294628" cy="6069419"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5685E-CE4E-692B-AFF6-C5C3B07DB77F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4A28D9-559A-C991-3E53-10D7646ACA4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7073,7 +7465,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8295,7 +8687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -10575,7 +10967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13103,13 +13495,15 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13317,7 +13711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14315,10 +14709,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{0F15D6FB-4DA6-45FB-AFC3-23D1660B6571}">
+          <x14:colorSeries rgb="FF323232"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Каналы продаж'!B2:M2</xm:f>
+              <xm:sqref>N2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Каналы продаж'!B3:M3</xm:f>
+              <xm:sqref>N3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Каналы продаж'!B4:M4</xm:f>
+              <xm:sqref>N4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Каналы продаж'!B5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{8702B678-381A-4159-8ABA-50010844CFF7}">
           <x14:colorSeries rgb="FF323232"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -14379,34 +14800,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{0F15D6FB-4DA6-45FB-AFC3-23D1660B6571}">
-          <x14:colorSeries rgb="FF323232"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Каналы продаж'!B2:M2</xm:f>
-              <xm:sqref>N2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Каналы продаж'!B3:M3</xm:f>
-              <xm:sqref>N3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Каналы продаж'!B4:M4</xm:f>
-              <xm:sqref>N4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Каналы продаж'!B5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
